--- a/public/files/fs_livelihoods_economic/Vault_livelihoods_Reasonnotworking.xlsx
+++ b/public/files/fs_livelihoods_economic/Vault_livelihoods_Reasonnotworking.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UNHCR\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\Food security\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STUPALOV\Dropbox\VASYR 2019 Core Group\7_Data Tabulations\4_VASyR_VAULT\FS_Livelihoods_Economic_DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A0DA1-4CF4-4DE2-B678-A02EE9D7A584}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METAData" sheetId="3" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -282,7 +277,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="###0.0%"/>
     <numFmt numFmtId="165" formatCode="####.0%"/>
@@ -852,11 +847,11 @@
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 5" xfId="6"/>
-    <cellStyle name="Normal_Sheet1 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal_Sheet1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1167,22 +1162,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1199,7 +1194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1216,7 +1211,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1228,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1245,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1301,7 +1296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1371,8 +1366,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'Reason not working'!A2" display="Link"/>
-    <hyperlink ref="A3:A11" location="'Reason not working'!A2" display="Link"/>
+    <hyperlink ref="A2" location="'Reason not working'!A2" display="Link" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A3:A11" location="'Reason not working'!A2" display="Link" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1380,30 +1375,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="9"/>
-    <col min="3" max="3" width="9.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="9"/>
-    <col min="5" max="5" width="9.109375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="9.109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="9"/>
-    <col min="9" max="9" width="9.109375" style="9" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" style="9"/>
-    <col min="13" max="13" width="14.88671875" style="9" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="14.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="9"/>
+    <col min="3" max="3" width="9.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="9"/>
+    <col min="5" max="5" width="9.140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9"/>
+    <col min="7" max="7" width="9.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="9"/>
+    <col min="9" max="9" width="9.140625" style="9" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="12.7109375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>43</v>
       </c>
@@ -1426,7 +1422,7 @@
       <c r="R1" s="39"/>
       <c r="S1" s="39"/>
     </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="42" t="s">
         <v>44</v>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="S2" s="37"/>
     </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41"/>
       <c r="B3" s="11" t="s">
         <v>40</v>
@@ -1522,7 +1518,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1577,7 @@
         <v>3.1988363449679556E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1600,7 @@
       <c r="R5" s="20"/>
       <c r="S5" s="21"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1659,7 @@
         <v>3.0248033877798577E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1718,7 @@
         <v>8.7976488918979877E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -1781,7 +1777,7 @@
         <v>1.5306122448979068E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>10</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>7.8260940832188004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1895,7 @@
         <v>1.0132881000326196E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>12</v>
       </c>
@@ -1958,7 +1954,7 @@
         <v>3.5378330047088312E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>13</v>
       </c>
@@ -2017,7 +2013,7 @@
         <v>2.0976934219353871E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
@@ -2076,7 +2072,7 @@
         <v>1.3399066849317954E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>15</v>
       </c>
@@ -2099,7 +2095,7 @@
       <c r="R14" s="20"/>
       <c r="S14" s="21"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>7</v>
       </c>
@@ -2158,7 +2154,7 @@
         <v>3.0248033877798577E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
@@ -2217,7 +2213,7 @@
         <v>6.5979381443298374E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>2.7431421446384299E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>18</v>
       </c>
@@ -2335,7 +2331,7 @@
         <v>9.2783505154637996E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>19</v>
       </c>
@@ -2394,7 +2390,7 @@
         <v>7.1090047393364744E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
@@ -2453,7 +2449,7 @@
         <v>1.5306122448979068E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>1.1705685618729159E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>21</v>
       </c>
@@ -2571,7 +2567,7 @@
         <v>2.1361815754338823E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>22</v>
       </c>
@@ -2630,7 +2626,7 @@
         <v>6.6371681415929671E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>23</v>
       </c>
@@ -2689,7 +2685,7 @@
         <v>1.5527950310558834E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>24</v>
       </c>
@@ -2748,7 +2744,7 @@
         <v>6.4377682403432982E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>25</v>
       </c>
@@ -2807,7 +2803,7 @@
         <v>3.1862745098039408E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>26</v>
       </c>
@@ -2866,7 +2862,7 @@
         <v>1.960784313725488E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>11</v>
       </c>
@@ -2925,7 +2921,7 @@
         <v>4.5248868778280807E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>27</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>1.0141987829614629E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>28</v>
       </c>
@@ -3043,7 +3039,7 @@
         <v>5.5187637969094434E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>29</v>
       </c>
@@ -3102,7 +3098,7 @@
         <v>1.3084112149532647E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
         <v>30</v>
       </c>
@@ -3161,7 +3157,7 @@
         <v>1.0126582278480949E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>31</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>2.3636363636363993E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>32</v>
       </c>
@@ -3279,7 +3275,7 @@
         <v>1.1520737327188859E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>33</v>
       </c>
@@ -3338,7 +3334,7 @@
         <v>1.4128728414442758E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>34</v>
       </c>
@@ -3397,7 +3393,7 @@
         <v>1.2307692307692391E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>35</v>
       </c>
@@ -3456,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>36</v>
       </c>
@@ -3515,7 +3511,7 @@
         <v>2.8368794326240746E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>37</v>
       </c>
@@ -3574,7 +3570,7 @@
         <v>9.6153846153845535E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>38</v>
       </c>
@@ -3633,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>52</v>
       </c>
@@ -3656,7 +3652,7 @@
       <c r="R41" s="20"/>
       <c r="S41" s="21"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3711,7 @@
         <v>1.5575131782712394E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
         <v>54</v>
       </c>
@@ -3774,7 +3770,7 @@
         <v>1.4524891418330323E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>55</v>
       </c>
@@ -3797,7 +3793,7 @@
       <c r="R44" s="20"/>
       <c r="S44" s="21"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="22" t="s">
         <v>56</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>1.3929440540503414E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="22" t="s">
         <v>57</v>
       </c>
@@ -3915,7 +3911,7 @@
         <v>1.9828783994421544E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>58</v>
       </c>
@@ -3938,7 +3934,7 @@
       <c r="R47" s="20"/>
       <c r="S47" s="21"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>59</v>
       </c>
@@ -3997,7 +3993,7 @@
         <v>1.9534742230139929E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>60</v>
       </c>
@@ -4056,7 +4052,7 @@
         <v>2.0209695224707107E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>61</v>
       </c>
@@ -4115,7 +4111,7 @@
         <v>1.8897154165186537E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>62</v>
       </c>
@@ -4174,7 +4170,7 @@
         <v>1.9106946950612626E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>63</v>
       </c>
@@ -4233,7 +4229,7 @@
         <v>1.2561116819570752E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>64</v>
       </c>
@@ -4292,7 +4288,7 @@
         <v>7.7562417973256045E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>65</v>
       </c>
@@ -4351,7 +4347,7 @@
         <v>2.0253433359603005E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>66</v>
       </c>
@@ -4410,7 +4406,7 @@
         <v>1.4276424429310401E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>67</v>
       </c>
@@ -4469,7 +4465,7 @@
         <v>1.7659821022431191E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>68</v>
       </c>
@@ -4528,7 +4524,7 @@
         <v>2.4174806253389615E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="24" t="s">
         <v>69</v>
       </c>
@@ -4587,7 +4583,7 @@
         <v>8.4175331169022566E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -4608,7 +4604,7 @@
       <c r="R59" s="30"/>
       <c r="S59" s="30"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="31"/>
       <c r="B60" s="32"/>
       <c r="C60" s="32"/>
@@ -4629,7 +4625,7 @@
       <c r="R60" s="33"/>
       <c r="S60" s="30"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -4650,7 +4646,7 @@
       <c r="R61" s="30"/>
       <c r="S61" s="30"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -4671,7 +4667,7 @@
       <c r="R62" s="30"/>
       <c r="S62" s="30"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -4692,7 +4688,7 @@
       <c r="R63" s="30"/>
       <c r="S63" s="30"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="34"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -4713,7 +4709,7 @@
       <c r="R64" s="30"/>
       <c r="S64" s="30"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="34"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -4734,7 +4730,7 @@
       <c r="R65" s="30"/>
       <c r="S65" s="30"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="34"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -4755,7 +4751,7 @@
       <c r="R66" s="30"/>
       <c r="S66" s="30"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="34"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -4776,7 +4772,7 @@
       <c r="R67" s="30"/>
       <c r="S67" s="30"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="34"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -4797,7 +4793,7 @@
       <c r="R68" s="30"/>
       <c r="S68" s="30"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="34"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -4818,7 +4814,7 @@
       <c r="R69" s="30"/>
       <c r="S69" s="30"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="34"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -4839,7 +4835,7 @@
       <c r="R70" s="30"/>
       <c r="S70" s="30"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="34"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -4860,7 +4856,7 @@
       <c r="R71" s="30"/>
       <c r="S71" s="30"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="34"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -4881,7 +4877,7 @@
       <c r="R72" s="30"/>
       <c r="S72" s="30"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="34"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -4902,7 +4898,7 @@
       <c r="R73" s="30"/>
       <c r="S73" s="30"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="34"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -4923,7 +4919,7 @@
       <c r="R74" s="30"/>
       <c r="S74" s="30"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="S75" s="30"/>
     </row>
   </sheetData>
